--- a/ig/ch-elm/ValueSet-ch-elm-results-completion-vs.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-results-completion-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-16T14:46:54+01:00</t>
+    <t>2024-01-31T12:59:55+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ValueSet-ch-elm-results-completion-vs.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-results-completion-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-31T12:59:55+01:00</t>
+    <t>2024-02-27T13:26:20+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ValueSet-ch-elm-results-completion-vs.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-results-completion-vs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="63">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.1</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-27T13:26:20+01:00</t>
+    <t>2024-03-28T10:46:20+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -105,82 +105,94 @@
     <t>Concept</t>
   </si>
   <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-bot-spec</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-complete-spec</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-diph-spec</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-geni-spec</t>
+  </si>
+  <si>
     <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-sterile-spec</t>
   </si>
   <si>
-    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-geni-spec</t>
-  </si>
-  <si>
-    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-bot-spec</t>
-  </si>
-  <si>
-    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-diph-spec</t>
-  </si>
-  <si>
     <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-tub-spec</t>
   </si>
   <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-bot-org</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-bru-org</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-camp-diar-org</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-camp-org</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-chol-org</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-cpe-org</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-diph-org</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-ehec-org</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-haem-org</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-hiv-org</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-inf-org</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-influ-org</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-lis-org</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-mal-org</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-mea-org</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-men-org</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-mpx-ctng</t>
+  </si>
+  <si>
     <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-mpx-sash</t>
   </si>
   <si>
-    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-mpx-ctng</t>
-  </si>
-  <si>
-    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-inf-org</t>
-  </si>
-  <si>
-    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-mea-org</t>
-  </si>
-  <si>
-    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-ehec-org</t>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-mpx-sashec</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-pneu-org</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-sal-org</t>
   </si>
   <si>
     <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-shi-org</t>
   </si>
   <si>
-    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-diph-org</t>
-  </si>
-  <si>
-    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-pneu-org</t>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-tub-gen-org</t>
   </si>
   <si>
     <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-tub-org</t>
-  </si>
-  <si>
-    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-sal-org</t>
-  </si>
-  <si>
-    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-haem-org</t>
-  </si>
-  <si>
-    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-lis-org</t>
-  </si>
-  <si>
-    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-chol-org</t>
-  </si>
-  <si>
-    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-hiv-org</t>
-  </si>
-  <si>
-    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-bru-org</t>
-  </si>
-  <si>
-    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-mpx-sashec</t>
-  </si>
-  <si>
-    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-men-org</t>
-  </si>
-  <si>
-    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-cpe-org</t>
-  </si>
-  <si>
-    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-mal-org</t>
-  </si>
-  <si>
-    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-bot-org</t>
-  </si>
-  <si>
-    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-tub-gen-org</t>
   </si>
   <si>
     <t/>
@@ -458,7 +470,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -636,16 +648,40 @@
       <c r="A28" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="B28" t="s" s="2">
-        <v>56</v>
-      </c>
+      <c r="B28" s="2"/>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
         <v>57</v>
       </c>
-      <c r="B29" t="s" s="2">
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="2">
         <v>58</v>
+      </c>
+      <c r="B30" s="2"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="B31" s="2"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/ig/ch-elm/ValueSet-ch-elm-results-completion-vs.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-results-completion-vs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="64">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.2.0</t>
+    <t>1.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-28T10:46:20+01:00</t>
+    <t>2024-05-17T13:32:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>Federal Office of Public Health FOPH (https://www.bag.admin.ch/bag/en/home/das-bag/kontakt-standort.html)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -157,6 +157,9 @@
   </si>
   <si>
     <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-influ-org</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-leg-org</t>
   </si>
   <si>
     <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-lis-org</t>
@@ -470,7 +473,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -672,16 +675,22 @@
       <c r="A32" t="s" s="2">
         <v>60</v>
       </c>
-      <c r="B32" t="s" s="2">
-        <v>60</v>
-      </c>
+      <c r="B32" s="2"/>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
         <v>61</v>
       </c>
       <c r="B33" t="s" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="2">
         <v>62</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/ig/ch-elm/ValueSet-ch-elm-results-completion-vs.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-results-completion-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.0</t>
+    <t>1.3.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-17T13:32:20+00:00</t>
+    <t>2024-06-17T08:59:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ValueSet-ch-elm-results-completion-vs.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-results-completion-vs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="66">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.1</t>
+    <t>1.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T08:59:23+00:00</t>
+    <t>2024-08-20T16:32:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -196,6 +196,12 @@
   </si>
   <si>
     <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-tub-org</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-tul-org</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-virus-cult-org</t>
   </si>
   <si>
     <t/>
@@ -473,7 +479,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -681,16 +687,28 @@
       <c r="A33" t="s" s="2">
         <v>61</v>
       </c>
-      <c r="B33" t="s" s="2">
-        <v>61</v>
-      </c>
+      <c r="B33" s="2"/>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
         <v>62</v>
       </c>
-      <c r="B34" t="s" s="2">
+      <c r="B34" s="2"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="2">
         <v>63</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/ig/ch-elm/ValueSet-ch-elm-results-completion-vs.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-results-completion-vs.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from CH ELM Results C" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.0</t>
+    <t>1.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-20T16:32:03+00:00</t>
+    <t>2024-09-24T11:18:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ValueSet-ch-elm-results-completion-vs.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-results-completion-vs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="71">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.0</t>
+    <t>1.6.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-24T11:18:39+00:00</t>
+    <t>2024-10-31T11:15:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -138,15 +138,24 @@
     <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-chol-org</t>
   </si>
   <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-cjd-org</t>
+  </si>
+  <si>
     <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-cpe-org</t>
   </si>
   <si>
     <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-diph-org</t>
   </si>
   <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-ebol-org</t>
+  </si>
+  <si>
     <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-ehec-org</t>
   </si>
   <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-ehec-tox-org</t>
+  </si>
+  <si>
     <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-haem-org</t>
   </si>
   <si>
@@ -168,6 +177,9 @@
     <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-mal-org</t>
   </si>
   <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-maldi-tof-org</t>
+  </si>
+  <si>
     <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-mea-org</t>
   </si>
   <si>
@@ -187,6 +199,9 @@
   </si>
   <si>
     <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-sal-org</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-sal-org-complete</t>
   </si>
   <si>
     <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-shi-org</t>
@@ -479,7 +494,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -699,16 +714,46 @@
       <c r="A35" t="s" s="2">
         <v>63</v>
       </c>
-      <c r="B35" t="s" s="2">
-        <v>63</v>
-      </c>
+      <c r="B35" s="2"/>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
         <v>64</v>
       </c>
-      <c r="B36" t="s" s="2">
+      <c r="B36" s="2"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="2">
         <v>65</v>
+      </c>
+      <c r="B37" s="2"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="B38" s="2"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="B39" s="2"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/ig/ch-elm/ValueSet-ch-elm-results-completion-vs.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-results-completion-vs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="72">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.6.0</t>
+    <t>1.7.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-31T11:15:20+00:00</t>
+    <t>2024-11-28T14:18:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -159,13 +159,16 @@
     <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-haem-org</t>
   </si>
   <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-hanta-org</t>
+  </si>
+  <si>
     <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-hiv-org</t>
   </si>
   <si>
     <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-inf-org</t>
   </si>
   <si>
-    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-influ-org</t>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-influenza-hxny-org</t>
   </si>
   <si>
     <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-leg-org</t>
@@ -494,7 +497,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -744,16 +747,22 @@
       <c r="A40" t="s" s="2">
         <v>68</v>
       </c>
-      <c r="B40" t="s" s="2">
-        <v>68</v>
-      </c>
+      <c r="B40" s="2"/>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
         <v>69</v>
       </c>
       <c r="B41" t="s" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="2">
         <v>70</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/ig/ch-elm/ValueSet-ch-elm-results-completion-vs.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-results-completion-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.7.0</t>
+    <t>1.8.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-28T14:18:34+00:00</t>
+    <t>2025-02-04T09:19:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ValueSet-ch-elm-results-completion-vs.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-results-completion-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.0</t>
+    <t>1.9.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T09:19:33+00:00</t>
+    <t>2025-03-18T17:14:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -141,9 +141,6 @@
     <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-cjd-org</t>
   </si>
   <si>
-    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-cpe-org</t>
-  </si>
-  <si>
     <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-diph-org</t>
   </si>
   <si>
@@ -187,6 +184,9 @@
   </si>
   <si>
     <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-men-org</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-mpox-org</t>
   </si>
   <si>
     <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-mpx-ctng</t>

--- a/ig/ch-elm/ValueSet-ch-elm-results-completion-vs.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-results-completion-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.9.0</t>
+    <t>1.9.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-18T17:14:46+00:00</t>
+    <t>2025-03-26T08:01:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ValueSet-ch-elm-results-completion-vs.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-results-completion-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.9.1</t>
+    <t>1.10.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-26T08:01:17+00:00</t>
+    <t>2025-06-23T21:17:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ValueSet-ch-elm-results-completion-vs.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-results-completion-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.10.0</t>
+    <t>1.11.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-23T21:17:45+00:00</t>
+    <t>2025-08-13T07:34:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ValueSet-ch-elm-results-completion-vs.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-results-completion-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.11.0</t>
+    <t>1.12.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-13T07:34:00+00:00</t>
+    <t>2025-10-21T11:52:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ValueSet-ch-elm-results-completion-vs.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-results-completion-vs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="73">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.12.0</t>
+    <t>1.13.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-21T11:52:21+00:00</t>
+    <t>2025-11-25T09:58:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-geni-spec</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-lis-spec</t>
   </si>
   <si>
     <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-sterile-spec</t>
@@ -497,7 +500,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -753,16 +756,22 @@
       <c r="A41" t="s" s="2">
         <v>69</v>
       </c>
-      <c r="B41" t="s" s="2">
-        <v>69</v>
-      </c>
+      <c r="B41" s="2"/>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
         <v>70</v>
       </c>
       <c r="B42" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="2">
         <v>71</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/ig/ch-elm/ValueSet-ch-elm-results-completion-vs.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-results-completion-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.13.0</t>
+    <t>1.13.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T09:58:53+00:00</t>
+    <t>2026-01-21T11:21:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
